--- a/SU_Suspension/Geometrie.xlsx
+++ b/SU_Suspension/Geometrie.xlsx
@@ -1,55 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bacs/Documents (non iCloud)/EPSA (non iCloud)/Ressources2020/SU_Suspension/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{89CB483E-1172-B449-8688-8EE892BF141A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25160" windowHeight="13660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.10" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.11" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.12" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.13" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.14" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.15" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.16" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.17" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.18" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.19" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.20" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.21" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.22" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.23" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.24" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.25" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.26" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.27" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.28" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.29" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.30" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.31" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.32" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.33" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.34" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.35" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">Feuil1!$J$3:$J$14</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">Feuil1!$L$2:$P$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">(Feuil1!$M$4~Feuil1!$M$6~Feuil1!$M$20~Feuil1!$M$10~Feuil1!$M$12~Feuil1!$M$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">(Feuil1!$N$4~Feuil1!$N$6~Feuil1!$N$20~Feuil1!$N$10~Feuil1!$N$12~Feuil1!$N$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">(Feuil1!$O$4~Feuil1!$O$6~Feuil1!$O$8~Feuil1!$O$10~Feuil1!$O$12~Feuil1!$O$14)</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.9" vbProcedure="false">(Feuil1!$P$4~Feuil1!$P$6~Feuil1!$P$8~Feuil1!$P$10~Feuil1!$P$12~Feuil1!$P$14)</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -61,62 +29,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Avant</t>
+    <t>Avant</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrière</t>
+    <t>Arrière</t>
   </si>
   <si>
-    <t xml:space="preserve">mm Cales de carossage</t>
+    <t>mm Cales de carossage</t>
   </si>
   <si>
-    <t xml:space="preserve">pince (deg)</t>
+    <t>pince (deg)</t>
   </si>
   <si>
-    <t xml:space="preserve">* Les mesures ont été prises avec MJT dans la voiture</t>
+    <t>* Les mesures ont été prises avec MJT dans la voiture</t>
   </si>
   <si>
-    <t xml:space="preserve">Gauche</t>
+    <t>Gauche</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrossage</t>
+    <t>Carrossage</t>
   </si>
   <si>
-    <t xml:space="preserve">pince (mm)</t>
+    <t>pince (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">* Pour mesurer la longueur de pince en mm, nous devissons le contre-écrou et le poussons en butée côté rotule. NE PAS FORCER : le faire tourner avec un seul doigt en appliquant une légère pression (200g). On mesure la distance entre l'écrou et l'insert COTE ROUE</t>
+    <t>* Pour mesurer la longueur de pince en mm, nous devissons le contre-écrou et le poussons en butée côté rotule. NE PAS FORCER : le faire tourner avec un seul doigt en appliquant une légère pression (200g). On mesure la distance entre l'écrou et l'insert COTE ROUE</t>
   </si>
   <si>
-    <t xml:space="preserve">* Nettoyer les filets avant de desserer l'écrou !!</t>
+    <t>* Nettoyer les filets avant de desserer l'écrou !!</t>
   </si>
   <si>
-    <t xml:space="preserve">Droite</t>
+    <t>Droite</t>
   </si>
   <si>
-    <t xml:space="preserve">Pince arrière gauche</t>
+    <t>Pince arrière gauche</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrossage\pince</t>
+    <t>Carrossage\pince</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrossage arrière gauche</t>
+    <t>Carrossage arrière gauche</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrossage arrière droite</t>
+    <t>Carrossage arrière droite</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesurer la longueur des bielettes de pince / direction :</t>
+    <t>Mesurer la longueur des bielettes de pince / direction :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -125,22 +90,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,24 +98,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,107 +115,71 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -336,15 +238,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -353,7 +273,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -361,7 +281,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -385,9 +305,9 @@
       <c:rotX val="30"/>
       <c:rotY val="40"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="6480">
@@ -396,6 +316,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="6480">
@@ -404,6 +325,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="6480">
@@ -412,6 +334,7 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
+      <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
@@ -421,26 +344,34 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -448,6 +379,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -457,37 +389,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -516,32 +439,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -549,6 +485,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -558,37 +495,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -620,32 +548,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -653,6 +594,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -662,37 +604,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -724,32 +657,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -757,6 +703,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -766,37 +713,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -828,32 +766,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -861,6 +812,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -870,37 +822,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -932,32 +875,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70ad47"/>
+              <a:srgbClr val="70AD47"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="9360">
+            <a:ln w="9360" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -965,6 +921,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -974,37 +931,28 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Feuil1!$L$30:$P$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1,4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>-0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1036,7 +984,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C786-8C49-A94E-CFE4BC4C140D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
         <c:axId val="86931853"/>
@@ -1057,7 +1018,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1067,13 +1028,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58446774"/>
@@ -1094,7 +1056,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1114,13 +1076,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="86931853"/>
@@ -1141,7 +1104,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1151,13 +1114,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58446774"/>
@@ -1178,37 +1142,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1217,7 +1190,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1225,7 +1198,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1246,6 +1219,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1253,12 +1227,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1268,23 +1239,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1293,6 +1272,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1302,9 +1282,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$39:$K$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1318,8 +1299,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1343,17 +1324,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-091F-C14D-AB94-915912C5652A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1363,23 +1346,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1388,6 +1379,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1397,9 +1389,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$39:$K$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1413,8 +1406,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1438,17 +1431,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-091F-C14D-AB94-915912C5652A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1458,23 +1453,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1483,6 +1486,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1492,9 +1496,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$39:$K$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1508,8 +1513,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1533,17 +1538,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-091F-C14D-AB94-915912C5652A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1553,23 +1560,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1578,6 +1593,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1587,9 +1603,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$39:$K$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1603,8 +1620,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1628,17 +1645,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-091F-C14D-AB94-915912C5652A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="70ad47"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1648,23 +1667,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1673,6 +1700,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1683,24 +1711,26 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="70ad47"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$39:$K$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1714,8 +1744,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1739,7 +1769,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-091F-C14D-AB94-915912C5652A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1748,6 +1791,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="95918675"/>
         <c:axId val="90860989"/>
       </c:lineChart>
@@ -1765,7 +1809,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1775,13 +1819,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="90860989"/>
@@ -1802,7 +1847,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1822,13 +1867,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95918675"/>
@@ -1856,37 +1902,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1895,7 +1950,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1903,7 +1958,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1924,6 +1979,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1931,12 +1987,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1946,23 +1999,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1971,6 +2032,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -1980,9 +2042,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$45:$K$48</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -1996,8 +2059,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2021,17 +2084,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57D0-F84E-9E59-139916854C4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2041,23 +2106,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2066,6 +2139,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -2075,9 +2149,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$45:$K$48</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -2091,8 +2166,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2116,17 +2191,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57D0-F84E-9E59-139916854C4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2136,23 +2213,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2161,6 +2246,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -2171,24 +2257,26 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19080" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="ffc000"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$K$45:$K$48</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -2202,8 +2290,8 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2227,7 +2315,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57D0-F84E-9E59-139916854C4F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2236,6 +2337,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="39818379"/>
         <c:axId val="1297150"/>
       </c:lineChart>
@@ -2253,7 +2355,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2263,13 +2365,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1297150"/>
@@ -2290,7 +2393,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2310,13 +2413,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39818379"/>
@@ -2344,35 +2448,1385 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Pince</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> vs longueur biellette pince pour plusieurs carrosage (arrière gauche)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16773916062461222"/>
+                  <c:y val="0.23396825521805434"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B0D-C741-A812-7BD211FE8777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1605014938244321"/>
+                  <c:y val="-5.9163980587469168E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B0D-C741-A812-7BD211FE8777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1368944891632384"/>
+                  <c:y val="-0.16926708237228694"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B0D-C741-A812-7BD211FE8777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17921891386868261"/>
+                  <c:y val="5.7916385866346086E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B0D-C741-A812-7BD211FE8777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2033757680"/>
+        <c:axId val="2104965440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2033757680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104965440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2104965440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033757680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -2386,14 +3840,20 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 2"/>
+        <xdr:cNvPr id="2" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14127120" y="4622040"/>
-        <a:ext cx="4069800" cy="2912400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2416,14 +3876,20 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Graphique 4"/>
+        <xdr:cNvPr id="3" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1295280" y="4972680"/>
-        <a:ext cx="6406200" cy="4336200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2446,14 +3912,20 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 5"/>
+        <xdr:cNvPr id="4" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9478800" y="9029880"/>
-        <a:ext cx="5666760" cy="3691440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2463,212 +3935,540 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436014</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>350924</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55579</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE1DFA5-6A7E-8045-BF5E-384E33657611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="135" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.33"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="8">
         <v>0.5</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="8">
         <v>-0.5</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="8">
         <v>-1</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="8">
         <v>-1.5</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="8">
         <v>-2</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="8">
         <v>0.5</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="8">
         <v>-0.5</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="8">
         <v>-1</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="8">
         <v>-1.4</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>-1.82</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="9">
         <v>-1.84</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="9">
         <v>-1.86</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>-1.86</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="9">
         <v>-1.86</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="9">
         <v>-1.87</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="1">
         <v>9</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="9">
         <v>-1.77</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="9">
         <v>-1.77</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="9">
         <v>-1.77</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="9">
         <v>-1.77</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="9">
         <v>-1.77</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>1.5</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="9">
         <v>1.7</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="9">
         <v>1.8</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="9">
         <v>1.9</v>
       </c>
-      <c r="H4" s="9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I4" s="9" t="n">
+      <c r="H4" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I4" s="9">
         <v>2.6</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="9">
         <v>7.5</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="9">
         <v>6.7</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="9">
         <v>6.2</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="9">
         <v>5.9</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
@@ -2678,35 +4478,35 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="1">
         <v>13</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="9">
         <v>-0.17</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="9">
         <v>-0.17</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="9">
         <v>-0.17</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="9">
         <v>-0.16</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="9">
         <v>-0.15</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
@@ -2716,33 +4516,33 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>7.76</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="9">
         <v>7.4</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="9">
         <v>6.9</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>6.5</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="9">
         <v>6.1</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2752,35 +4552,35 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>-2.14</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="9">
         <v>-2.14</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="9">
         <v>-2.12</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>-2.11</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="9">
         <v>-2.08</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -2790,33 +4590,33 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="9">
         <v>6.8</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="9">
         <v>6.3</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="N8" s="9">
         <v>5.9</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>5.5</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="9">
         <v>4.7</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
@@ -2826,37 +4626,37 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="1">
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="9">
         <v>-0.43</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="9">
         <v>-0.42</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="9">
         <v>-0.42</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="9">
         <v>-0.41</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="9">
         <v>-0.39</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -2866,23 +4666,23 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="9">
         <v>7.6</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="9">
         <v>7.2</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="9">
         <v>6.7</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="9">
         <v>6.3</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="P10" s="9">
         <v>6</v>
       </c>
       <c r="S10" s="10"/>
@@ -2890,9 +4690,9 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2902,7 +4702,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2916,9 +4716,9 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +4728,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2942,9 +4742,9 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
@@ -2954,7 +4754,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
@@ -2968,9 +4768,9 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +4780,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="9" t="s">
         <v>7</v>
       </c>
@@ -2994,53 +4794,53 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>-1.41</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="9">
         <v>-1.44</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="9">
         <v>-1.44</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="9">
         <v>-1.44</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="9">
         <v>-1.44</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="9">
         <v>-1.45</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="1">
         <v>9</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="9">
         <v>-1.57</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="M15" s="9">
         <v>-1.59</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="N15" s="9">
         <v>-1.59</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>-1.6</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="P15" s="9">
         <v>-1.62</v>
       </c>
       <c r="S15" s="10"/>
@@ -3048,47 +4848,47 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>3.8</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="9">
         <v>3.9</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="9">
         <v>4</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="9">
         <v>4.2</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="9">
         <v>4.5</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="9">
         <v>4.7</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="L16" s="9">
         <v>8.4</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="M16" s="9">
         <v>8</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="N16" s="9">
         <v>7.7</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="9">
         <v>7.16</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="P16" s="9">
         <v>6.62</v>
       </c>
       <c r="S16" s="10"/>
@@ -3096,9 +4896,9 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
@@ -3108,19 +4908,19 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="1">
         <v>13</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="9">
         <v>0.01</v>
       </c>
-      <c r="M17" s="9" t="n">
+      <c r="M17" s="9">
         <v>0</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="9">
         <v>0</v>
       </c>
       <c r="O17" s="9"/>
@@ -3130,9 +4930,9 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -3142,17 +4942,17 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="9" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="M18" s="9" t="n">
+      <c r="L18" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M18" s="9">
         <v>7.9</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="N18" s="9">
         <v>7.5</v>
       </c>
       <c r="O18" s="9"/>
@@ -3162,9 +4962,9 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
         <v>6</v>
       </c>
@@ -3174,19 +4974,19 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="1">
         <v>5</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="9" t="n">
+      <c r="L19" s="9">
         <v>-1.94</v>
       </c>
-      <c r="M19" s="9" t="n">
+      <c r="M19" s="9">
         <v>-1.96</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="N19" s="9">
         <v>-1.97</v>
       </c>
       <c r="O19" s="9"/>
@@ -3196,9 +4996,9 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -3208,25 +5008,25 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="9" t="n">
+      <c r="L20" s="9">
         <v>7.34</v>
       </c>
-      <c r="M20" s="9" t="n">
+      <c r="M20" s="9">
         <v>6.76</v>
       </c>
-      <c r="N20" s="9" t="n">
+      <c r="N20" s="9">
         <v>6.34</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
         <v>6</v>
       </c>
@@ -3236,27 +5036,27 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="1">
         <v>11</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="9" t="n">
+      <c r="L21" s="9">
         <v>-0.59</v>
       </c>
-      <c r="M21" s="9" t="n">
+      <c r="M21" s="9">
         <v>-0.6</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="N21" s="9">
         <v>-0.6</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -3266,25 +5066,25 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="9" t="n">
+      <c r="L22" s="9">
         <v>8</v>
       </c>
-      <c r="M22" s="9" t="n">
+      <c r="M22" s="9">
         <v>7.7</v>
       </c>
-      <c r="N22" s="9" t="n">
+      <c r="N22" s="9">
         <v>7.2</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="9" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +5094,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="9" t="s">
         <v>6</v>
       </c>
@@ -3304,9 +5104,9 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +5116,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="9" t="s">
         <v>7</v>
       </c>
@@ -3326,9 +5126,9 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>6</v>
       </c>
@@ -3338,7 +5138,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="9" t="s">
         <v>6</v>
       </c>
@@ -3348,9 +5148,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -3360,7 +5160,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="9" t="s">
         <v>7</v>
       </c>
@@ -3370,392 +5170,410 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="2" t="s">
+    <row r="29" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="0" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="5" t="n">
-        <f aca="false">L2</f>
+      <c r="L30" s="8">
+        <f>L2</f>
         <v>0.5</v>
       </c>
-      <c r="M30" s="5" t="n">
-        <f aca="false">M2</f>
+      <c r="M30" s="8">
+        <f>M2</f>
         <v>0</v>
       </c>
-      <c r="N30" s="5" t="n">
-        <f aca="false">N2</f>
+      <c r="N30" s="8">
+        <f>N2</f>
         <v>-0.5</v>
       </c>
-      <c r="O30" s="5" t="n">
-        <f aca="false">O2</f>
+      <c r="O30" s="8">
+        <f>O2</f>
         <v>-1</v>
       </c>
-      <c r="P30" s="5" t="n">
-        <f aca="false">P2</f>
+      <c r="P30" s="8">
+        <f>P2</f>
         <v>-1.4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="0" t="n">
-        <f aca="false">J3</f>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f>J3</f>
         <v>9</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <f aca="false">L4</f>
+      <c r="L31">
+        <f>L4</f>
         <v>7.5</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <f aca="false">M4</f>
+      <c r="M31">
+        <f>M4</f>
         <v>7</v>
       </c>
-      <c r="N31" s="0" t="n">
-        <f aca="false">N4</f>
+      <c r="N31">
+        <f>N4</f>
         <v>6.7</v>
       </c>
-      <c r="O31" s="0" t="n">
-        <f aca="false">O4</f>
+      <c r="O31">
+        <f>O4</f>
         <v>6.2</v>
       </c>
-      <c r="P31" s="0" t="n">
-        <f aca="false">P4</f>
+      <c r="P31">
+        <f>P4</f>
         <v>5.9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="0" t="n">
-        <f aca="false">J5</f>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f>J5</f>
         <v>13</v>
       </c>
-      <c r="L32" s="0" t="n">
-        <f aca="false">L6</f>
+      <c r="L32">
+        <f>L6</f>
         <v>7.76</v>
       </c>
-      <c r="M32" s="0" t="n">
-        <f aca="false">M6</f>
+      <c r="M32">
+        <f>M6</f>
         <v>7.4</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <f aca="false">N6</f>
+      <c r="N32">
+        <f>N6</f>
         <v>6.9</v>
       </c>
-      <c r="O32" s="0" t="n">
-        <f aca="false">O6</f>
+      <c r="O32">
+        <f>O6</f>
         <v>6.5</v>
       </c>
-      <c r="P32" s="0" t="n">
-        <f aca="false">P6</f>
+      <c r="P32">
+        <f>P6</f>
         <v>6.1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="0" t="n">
-        <f aca="false">J7</f>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f>J7</f>
         <v>5</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <f aca="false">L20</f>
+      <c r="L33">
+        <f>L20</f>
         <v>7.34</v>
       </c>
-      <c r="M33" s="0" t="n">
-        <f aca="false">M20</f>
+      <c r="M33">
+        <f>M20</f>
         <v>6.76</v>
       </c>
-      <c r="N33" s="0" t="n">
-        <f aca="false">N20</f>
+      <c r="N33">
+        <f>N20</f>
         <v>6.34</v>
       </c>
-      <c r="O33" s="0" t="n">
-        <f aca="false">O8</f>
+      <c r="O33">
+        <f>O8</f>
         <v>5.5</v>
       </c>
-      <c r="P33" s="0" t="n">
-        <f aca="false">P8</f>
+      <c r="P33">
+        <f>P8</f>
         <v>4.7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="0" t="n">
-        <f aca="false">J9</f>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f>J9</f>
         <v>11</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <f aca="false">L10</f>
+      <c r="L34">
+        <f>L10</f>
         <v>7.6</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <f aca="false">M10</f>
+      <c r="M34">
+        <f>M10</f>
         <v>7.2</v>
       </c>
-      <c r="N34" s="0" t="n">
-        <f aca="false">N10</f>
+      <c r="N34">
+        <f>N10</f>
         <v>6.7</v>
       </c>
-      <c r="O34" s="0" t="n">
-        <f aca="false">O10</f>
+      <c r="O34">
+        <f>O10</f>
         <v>6.3</v>
       </c>
-      <c r="P34" s="0" t="n">
-        <f aca="false">P10</f>
+      <c r="P34">
+        <f>P10</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="0" t="n">
-        <f aca="false">J11</f>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <f>J11</f>
         <v>0</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <f aca="false">L12</f>
+      <c r="L35">
+        <f>L12</f>
         <v>0</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <f aca="false">M12</f>
+      <c r="M35">
+        <f>M12</f>
         <v>0</v>
       </c>
-      <c r="N35" s="0" t="n">
-        <f aca="false">N12</f>
+      <c r="N35">
+        <f>N12</f>
         <v>0</v>
       </c>
-      <c r="O35" s="0" t="n">
-        <f aca="false">O12</f>
+      <c r="O35">
+        <f>O12</f>
         <v>0</v>
       </c>
-      <c r="P35" s="0" t="n">
-        <f aca="false">P12</f>
+      <c r="P35">
+        <f>P12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K36" s="0" t="n">
-        <f aca="false">J13</f>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f>J13</f>
         <v>0</v>
       </c>
-      <c r="L36" s="0" t="n">
-        <f aca="false">L14</f>
+      <c r="L36">
+        <f>L14</f>
         <v>0</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <f aca="false">M14</f>
+      <c r="M36">
+        <f>M14</f>
         <v>0</v>
       </c>
-      <c r="N36" s="0" t="n">
-        <f aca="false">N14</f>
+      <c r="N36">
+        <f>N14</f>
         <v>0</v>
       </c>
-      <c r="O36" s="0" t="n">
-        <f aca="false">O14</f>
+      <c r="O36">
+        <f>O14</f>
         <v>0</v>
       </c>
-      <c r="P36" s="0" t="n">
-        <f aca="false">P14</f>
+      <c r="P36">
+        <f>P14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L38" s="2" t="s">
+    <row r="38" spans="11:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="L38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K39" s="0" t="n">
-        <f aca="false">J7</f>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <f>J7</f>
         <v>5</v>
       </c>
-      <c r="L39" s="0" t="n">
-        <f aca="false">L7</f>
+      <c r="L39">
+        <f>L7</f>
         <v>-2.14</v>
       </c>
-      <c r="M39" s="0" t="n">
-        <f aca="false">M7</f>
+      <c r="M39">
+        <f>M7</f>
         <v>-2.14</v>
       </c>
-      <c r="N39" s="0" t="n">
-        <f aca="false">N7</f>
+      <c r="N39">
+        <f>N7</f>
         <v>-2.12</v>
       </c>
-      <c r="O39" s="0" t="n">
-        <f aca="false">O7</f>
+      <c r="O39">
+        <f>O7</f>
         <v>-2.11</v>
       </c>
-      <c r="P39" s="0" t="n">
-        <f aca="false">P7</f>
+      <c r="P39">
+        <f>P7</f>
         <v>-2.08</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K40" s="0" t="n">
-        <f aca="false">J15</f>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <f>J15</f>
         <v>9</v>
       </c>
-      <c r="L40" s="0" t="n">
-        <f aca="false">L3</f>
+      <c r="L40">
+        <f>L3</f>
         <v>-1.77</v>
       </c>
-      <c r="M40" s="0" t="n">
-        <f aca="false">M3</f>
+      <c r="M40">
+        <f>M3</f>
         <v>-1.77</v>
       </c>
-      <c r="N40" s="0" t="n">
-        <f aca="false">N3</f>
+      <c r="N40">
+        <f>N3</f>
         <v>-1.77</v>
       </c>
-      <c r="O40" s="0" t="n">
-        <f aca="false">O3</f>
+      <c r="O40">
+        <f>O3</f>
         <v>-1.77</v>
       </c>
-      <c r="P40" s="0" t="n">
-        <f aca="false">P3</f>
+      <c r="P40">
+        <f>P3</f>
         <v>-1.77</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K41" s="0" t="n">
-        <f aca="false">J9</f>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <f>J9</f>
         <v>11</v>
       </c>
-      <c r="L41" s="0" t="n">
-        <f aca="false">L9</f>
+      <c r="L41">
+        <f>L9</f>
         <v>-0.43</v>
       </c>
-      <c r="M41" s="0" t="n">
-        <f aca="false">M9</f>
+      <c r="M41">
+        <f>M9</f>
         <v>-0.42</v>
       </c>
-      <c r="N41" s="0" t="n">
-        <f aca="false">N9</f>
+      <c r="N41">
+        <f>N9</f>
         <v>-0.42</v>
       </c>
-      <c r="O41" s="0" t="n">
-        <f aca="false">O9</f>
+      <c r="O41">
+        <f>O9</f>
         <v>-0.41</v>
       </c>
-      <c r="P41" s="0" t="n">
-        <f aca="false">P9</f>
+      <c r="P41">
+        <f>P9</f>
         <v>-0.39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K42" s="0" t="n">
-        <f aca="false">J17</f>
+    <row r="42" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f>J17</f>
         <v>13</v>
       </c>
-      <c r="L42" s="0" t="n">
-        <f aca="false">L5</f>
+      <c r="L42">
+        <f>L5</f>
         <v>-0.17</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <f aca="false">M5</f>
+      <c r="M42">
+        <f>M5</f>
         <v>-0.17</v>
       </c>
-      <c r="N42" s="0" t="n">
-        <f aca="false">N5</f>
+      <c r="N42">
+        <f>N5</f>
         <v>-0.17</v>
       </c>
-      <c r="O42" s="0" t="n">
-        <f aca="false">O5</f>
+      <c r="O42">
+        <f>O5</f>
         <v>-0.16</v>
       </c>
-      <c r="P42" s="0" t="n">
-        <f aca="false">P5</f>
+      <c r="P42">
+        <f>P5</f>
         <v>-0.15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L44" s="2" t="s">
+    <row r="44" spans="11:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="L44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K45" s="0" t="n">
-        <f aca="false">K39</f>
+    <row r="45" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <f>K39</f>
         <v>5</v>
       </c>
-      <c r="L45" s="0" t="n">
-        <f aca="false">L19</f>
+      <c r="L45">
+        <f>L19</f>
         <v>-1.94</v>
       </c>
-      <c r="M45" s="0" t="n">
-        <f aca="false">M19</f>
+      <c r="M45">
+        <f>M19</f>
         <v>-1.96</v>
       </c>
-      <c r="N45" s="0" t="n">
-        <f aca="false">N19</f>
+      <c r="N45">
+        <f>N19</f>
         <v>-1.97</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K46" s="0" t="n">
-        <f aca="false">K40</f>
+    <row r="46" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <f>K40</f>
         <v>9</v>
       </c>
-      <c r="L46" s="0" t="n">
-        <f aca="false">L15</f>
+      <c r="L46">
+        <f>L15</f>
         <v>-1.57</v>
       </c>
-      <c r="M46" s="0" t="n">
-        <f aca="false">M15</f>
+      <c r="M46">
+        <f>M15</f>
         <v>-1.59</v>
       </c>
-      <c r="N46" s="0" t="n">
-        <f aca="false">N15</f>
+      <c r="N46">
+        <f>N15</f>
         <v>-1.59</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K47" s="0" t="n">
-        <f aca="false">K41</f>
+    <row r="47" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <f>K41</f>
         <v>11</v>
       </c>
-      <c r="L47" s="0" t="n">
-        <f aca="false">L21</f>
+      <c r="L47">
+        <f>L21</f>
         <v>-0.59</v>
       </c>
-      <c r="M47" s="0" t="n">
-        <f aca="false">M21</f>
+      <c r="M47">
+        <f>M21</f>
         <v>-0.6</v>
       </c>
-      <c r="N47" s="0" t="n">
-        <f aca="false">N21</f>
+      <c r="N47">
+        <f>N21</f>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K48" s="0" t="n">
-        <f aca="false">K42</f>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <f>K42</f>
         <v>13</v>
       </c>
-      <c r="L48" s="0" t="n">
-        <f aca="false">L17</f>
+      <c r="L48">
+        <f>L17</f>
         <v>0.01</v>
       </c>
-      <c r="M48" s="0" t="n">
-        <f aca="false">M17</f>
+      <c r="M48">
+        <f>M17</f>
         <v>0</v>
       </c>
-      <c r="N48" s="0" t="n">
-        <f aca="false">N17</f>
+      <c r="N48">
+        <f>N17</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="S2:V3"/>
@@ -3772,61 +5590,30 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L44:P44"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>